--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E2817-49C2-4888-ADC2-B441F50A2515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2993F-D599-4CB3-8134-D11D489E5494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.240913237326358</v>
+        <v>0.19089907854464311</v>
       </c>
       <c r="C2" s="1">
-        <v>0.75079353057206499</v>
+        <v>0.7711273666050199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1861099673279708</v>
+        <v>0.1548028361363773</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.1329331462981401</v>
+        <v>0.10973750927077019</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9.7602678302267154E-2</v>
+        <v>9.0832384580718489E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +479,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>9.3234501317328827E-2</v>
+        <v>7.8671193901490466E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.4679562968796978E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.1504801202223356E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/principalComponentAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2993F-D599-4CB3-8134-D11D489E5494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD3BE1-1ECA-4C43-92AD-AF7BCBA7917C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
